--- a/ForTranslation/TextDB_fr.xlsx
+++ b/ForTranslation/TextDB_fr.xlsx
@@ -53,51 +53,51 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Cosigue Ahora</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Recompensas gratis.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gêèt frêèêè rêèwàárds by wàátchîïng vîïdêèòôs òôr còômplêètîïng òôffêèrs!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Vìîdéëóò</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Wäãtch Vìïdëêõó!</t>
+      <t>Obtenir dès maintenant !</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Récompenses gratuites !</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Obtenez des récompenses gratuites en regardant des vidéos ou en souscrivant à des offres !</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vidéo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wãâtch Víïdëéôò!</t>
     </r>
   </si>
   <si>
@@ -119,29 +119,29 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Géêt Òfféêrs!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>RÉWÃRDS!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gèêt ýúp tóõ</t>
+      <t>Gêêt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RÊWÃRDS!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gèèt ýüp tõô</t>
     </r>
   </si>
   <si>
@@ -155,7 +155,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Éæårn!</t>
+      <t>Éáærn!</t>
     </r>
   </si>
   <si>
@@ -208,7 +208,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Åqùüæãtìîc Pæãrk</t>
+      <t>Æqýûãátîîc Pãárk</t>
     </r>
   </si>
   <si>
@@ -222,7 +222,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Àqýûæåtïìc côòmbæåt træåïìnïìng cëéntëér!</t>
+      <t>Âqùúäátïïc côômbäát träáïïnïïng cêèntêèr!</t>
     </r>
     <r>
       <rPr>
@@ -240,7 +240,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Dæângèëröòüús æâqüúæârïïüúm!</t>
+      <t>Dæángêërööùýs æáq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ùýæárïîùým!</t>
     </r>
     <r>
       <rPr>
@@ -258,29 +267,29 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Prèètty dèècèènt næåp spóõt!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ôdìîn's Råãvèëns</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Òdîîn's râãvêèns shõòw hîîm êèvêèrythîîng thâãt hâãppêèns îîn âãll thêè Têèn Rêèâãlms.</t>
+      <t>Prèëtty dèëcèënt nâåp spöót!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ódïín's Râávêêns</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Õdîín's ráâvêêns shóów hîím êêvêêrythîíng tháât háâppêêns îín áâll thêê Têên Rêêáâlms.</t>
     </r>
     <r>
       <rPr>
@@ -298,117 +307,126 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Thæät's nõót æälwæäys æä gõóõód thíïng...</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Írôõn Mäænäætèéèé</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Héê måäkéês thíís lõóõók gõóõód.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Slëèìîpnìîr</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Éíìght-lêëggêëd-díìmêënsíìóón-hóóppíìng-Òdíìnhóórsêë!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sæàndcæàstléë</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Æ cáâstlêè fïìt fôôr áâ sáând cráâb!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sâând Tíïlèés</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Wìípëè yõóüûr fëèëèt bëèfõórëè ëèntëèrìíng Dìírëèctõór Füûry's õóffìícëè.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Wåätêèr Tìïlêès</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Hóönèêstly, thïïs ïïs áä sáäfèêty háäzáärd.</t>
+      <t>Thæát's nõõt æálwæáys æá gõõõõd thíïng...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ìròõn Mããnããtéêéê</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hêé måäkêés thïïs lõöõök gõöõöd.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Slèéîïpnîïr</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Éíìght-lêèggêèd-díìmêènsíìôön-hôöppíìng-Òdíìnhôörsêè!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sàândcàâstléè</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Á cæástlèé fíî</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t föõr æá sæánd cræáb!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sáånd Tíïlèès</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wìípéë yõóúùr féëéët béëfõóréë éëntéërìíng Dìíréëctõór Fúùry's õóffìícéë.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wæàtêêr Tíîlêês</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Höõnëëstly, thíïs íïs áã sáãfëëty háãzáãrd.</t>
     </r>
     <r>
       <rPr>
@@ -426,139 +444,139 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Pëèppëèr wóòûýld nóòt æåppróòvëè.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ódíîn Bôõbblèêhèêãâd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Thêê Àll-Bööbblêêhêêààd.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Hàãnk Pym Bòöbblêëhêëàãd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tháæt's Bòóbblèëhèëáæd!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pïïrãátêê Còòvêê</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Thïîs åänïîmåätëêd åäwëêsöõmëênëêss ïîs thëê úúltïîmåätëê söõúúrcëê föõr Göõld Töõrpëêdöõëês!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Yèéllõõw Sùýbmáârïìnèé</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Thïís åänïímåätêêd üùndêêrsêêåä vêêhïíclêê gêênêêråätêês mòórêê Trïídêênts!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Góóldêën Sêëâå Sêërpêënt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Thìïs äænìïmäætëëd sëëäæ crëëäætùürëë ìïs thëë ùültìïmäætëë sòõùürcëë fòõr Trìïdëënts!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pym's Årmóöry</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Thåát's Wêèåápõönry!</t>
+      <t>Pêéppêér wõóúýld nõót æâpprõóvêé.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ódíín Böôbblèëhèëâåd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Théê Àll-Bõòbbléêhéêæád.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hãånk Pym Bòõbblèéhèéãåd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thàæt's Bóõbblêèhêèàæd!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Píïrâàtéé Cöóvéé</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thîìs åãnîìmåãtêëd åãwêësôómêënêëss îìs thêë ûýltîìmåãtêë sôóûýrcêë fôór Gôóld Tôórpêëdôóêës!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Yëèllöõw Sûûbmäárîïnëè</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thïîs åánïîmåátèèd úúndèèrsèèåá vèèhïîclèè gèènèèråátèès mòôrèè Trïîdèènts!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Góôldèên Sèêäã Sèêrpèênt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thíís æäníímæätêèd sêèæä crêèæätûùrêè íís thêè ûùltíímæätêè sõòûùrcêè fõòr Tríídêènts!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pym's Ármôôry</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thæåt's Wëèæåpöönry!</t>
     </r>
   </si>
   <si>
@@ -572,7 +590,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Ódîín</t>
+      <t>Ódìín</t>
     </r>
   </si>
   <si>
@@ -2751,7 +2769,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Thèé LÏMÏTËD-TÏMË Lèégèénds Ássèémblèé! èévèént hæäs bèégüùn!</t>
+      <t>Thêè LÌMÌTÊD-TÌMÊ Lêègêènds Ãssêèmblêè! êèvêènt hàâs bêègúún!</t>
     </r>
     <r>
       <rPr>
@@ -2769,7 +2787,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Bâättlëê rîîvâäl stúúdëênts âänd úúndëêrwâätëêr îînvâädëêrs tòó rëêscúúëê thëê fâäcúúlty!</t>
+      <t>Bàáttlëè rîìvàál stúúdëènts àánd úúndëèrwàátëèr îìnvàádëèrs tôõ rëèscúúëè thëè fàácúúlty!</t>
     </r>
     <r>
       <rPr>
@@ -2787,18 +2805,18 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Dööwnlööâæd nööw!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Théë LÏMÏTÉD-TÏMÉ Léëgéënds Âsséëmbléë! éëvéënt håás béëgýùn!</t>
+      <t>Döòwnlöòáåd nöòw!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Théè LÌMÌTËD-TÌMË Léègéènds Åsséèmbléè! éèvéènt hæàs béègýûn!</t>
     </r>
     <r>
       <rPr>
@@ -2816,7 +2834,258 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Dõöwnlõöãåd ãånd bãåttlèë rîìvãål stúúdèënts!</t>
+      <t>Dõòwnlõòâåd âånd bâåttlëé ríívâål stùüdëénts!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NÉW:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ódíìn hàás jôôíìnéêd théê Ácàádéêmy fôôr àá spéêcíìàál éêvéênt!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Plàäy nóöw </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> gèét hììm whììlèé yóöýý càän!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NÈW ÈVÈNT:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rèècrúýíít yõòúýr tèèàæm õòf Âvèèngèèrs àænd bàættlèè ríívàæl stúýdèènts tõò rèèscúýèè thèè fàæcúýlty!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Plåäy Nòöw!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Thèë Ävèëngèërs, Ä.Ï.M. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Hydrãã fããcèë òôff ìín ãã spèëcìíããl èëvèënt!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Dõõwnlõõäæd nõõw </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> jõõïín thêé bäættlêé!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NËW:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hêëlp thêë Ávêëngêërs rêëstõôrêë õôrdêër tõô Ávêëngêërs Ácàã</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>dêëmy!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ùnlöóck Ödìîn æænd möórêë!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Plæày nöôw!</t>
     </r>
   </si>
   <si>
@@ -2845,7 +3114,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Ôdìîn hàäs jöôìînêêd thêê Ácàädêêmy föôr àä spêêcìîàäl êêvêênt!</t>
+      <t>Hêêlp thêê Ævêêngêêrs fïìght Ættüýmâá âánd hïìs vïìllâáïìnõôüýs üýndêêrwâátêêr schõôõôl!</t>
     </r>
     <r>
       <rPr>
@@ -2863,7 +3132,74 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Plãây nôöw </t>
+      <t>Dòõwnlòõáäd nòõw!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Théé LÎMÎTÈD-TÎMÈ Léégéénds Ãsséémbléé! éévéént håæs béégûún!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pláày nôôw áànd báàttl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>êè ríïváàl stýûdêènts!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>LÏMÏTÈD-TÏMÈ:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Nïîck Fûüry, Òdïîn, Hàånk Pym, Frïîggàå </t>
     </r>
     <r>
       <rPr>
@@ -2881,18 +3217,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> géêt hîïm whîïléê yôöùû cãân!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>NÊW ÊVÊNT:</t>
+      <t xml:space="preserve"> móôréê hàåvéê jóôïînéêd Åvéêngéêrs Åcàådéêmy!</t>
     </r>
     <r>
       <rPr>
@@ -2910,7 +3235,18 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Rêécrýûïït yóöýûr têéæàm óöf Åvêéngêérs æànd bæàttlêé rïïvæàl stýûdêénts tóö rêéscýûêé thêé fæàcýûlty!</t>
+      <t>Pläæy Nöów!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NÉW:</t>
     </r>
     <r>
       <rPr>
@@ -2928,36 +3264,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Plàáy Nõôw!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Thèè Ävèèngèèrs, Ä.Ì.M. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Hydrãã fããcèè ôòff ìîn ãã spèècìîããl èèvèènt!</t>
+      <t>Âctíîvæãtéè théè Héèlíîcæãrríîéèr fôôr théè fíîrst tíîméè tôô déèféènd Âvéèngéèrs Âcæãdéèmy!</t>
     </r>
     <r>
       <rPr>
@@ -2975,300 +3282,29 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Dõöwnlõöããd nõöw </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> jõöïïn théê bããttléê!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>NÊW:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Hèélp thèé Ávèéngèérs rèéstôórèé ôórdèér tôó Ávèéngèérs Ácæædèémy!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ùnlóòck Ödíîn ãànd móòrêê!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Plåày nõòw!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>NÈW:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Héélp théé Ãvééngéérs fïíght Ãttüúmàá àánd hïís vïíllàáïínóöüús üúndéérwàátéér schóöóöl!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Döôwnlöôàãd nöôw!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Thêè LÎMÎTÊD-TÎMÊ Lêègêènds Ässêèmblêè! êèvêènt hàæs bêègýün!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Plååy nöôw åånd bååttlêè rîìvåål stüûdêènts!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>LÏMÏTÉD-TÏMÉ:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Nìíck Fúýry, Ôdìín, Hæânk Pym, Frìíggæâ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> möóréé hæâvéé jöóìínééd Ævééngéérs Æcæâdéémy!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Plåày Nóôw!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>NÈW:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Áctììvåàtéë théë Héëlììcåàrrììéër fõór théë fììrst tììméë tõó déëféënd Ávéëngéërs Ácåàdéëmy!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Plæáy nöõw!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Rèëcrúýîït Nîïck Fúýry ãånd ôòthèër nèëw chãårãåctèërs!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Àctùùæâl gæâmêë fõõõõtæâgêë</t>
+      <t>Plãæy nòôw!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rèècrùúìît Nìîck Fùúry åånd òôthèèr nèèw chåårååctèèrs!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Âctüúåäl gåämèé fòóòótåägèé</t>
     </r>
   </si>
 </sst>
